--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model3_isoenzymes.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model3_isoenzymes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,328 +25,334 @@
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="Unspecified"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="105">
-  <si>
-    <t>General Reaction and Sampling Platform (GRASP)</t>
-  </si>
-  <si>
-    <t>Model name</t>
-  </si>
-  <si>
-    <t>toy_model3_isoenzymes</t>
-  </si>
-  <si>
-    <t>Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t>ORACLE</t>
-  </si>
-  <si>
-    <t>NLP solver (NLOPT, OPTI, FMINCON (default))</t>
-  </si>
-  <si>
-    <t>FMINCON</t>
-  </si>
-  <si>
-    <t>Number of exp. conditions (excluding reference state)</t>
-  </si>
-  <si>
-    <t>Number of model structures</t>
-  </si>
-  <si>
-    <t>Number of particles</t>
-  </si>
-  <si>
-    <t>Parallel mode (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Number of cores (ignored if Parallel mode disabled)</t>
-  </si>
-  <si>
-    <t>Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t>Compute robust fluxes (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
-    <t>Final tolerance (in the case of ORACLE, set to 1)</t>
-  </si>
-  <si>
-    <t>rxn ID</t>
-  </si>
-  <si>
-    <t>m1</t>
-  </si>
-  <si>
-    <t>m2</t>
-  </si>
-  <si>
-    <t>m3</t>
-  </si>
-  <si>
-    <t>m4</t>
-  </si>
-  <si>
-    <t>m5</t>
-  </si>
-  <si>
-    <t>m6</t>
-  </si>
-  <si>
-    <t>m7</t>
-  </si>
-  <si>
-    <t>m8</t>
-  </si>
-  <si>
-    <t>m9</t>
-  </si>
-  <si>
-    <t>m10</t>
-  </si>
-  <si>
-    <t>m11</t>
-  </si>
-  <si>
-    <t>m12</t>
-  </si>
-  <si>
-    <t>m13</t>
-  </si>
-  <si>
-    <t>m14</t>
-  </si>
-  <si>
-    <t>m15</t>
-  </si>
-  <si>
-    <t>m16</t>
-  </si>
-  <si>
-    <t>r1</t>
-  </si>
-  <si>
-    <t>r2</t>
-  </si>
-  <si>
-    <t>r3</t>
-  </si>
-  <si>
-    <t>r4</t>
-  </si>
-  <si>
-    <t>r5</t>
-  </si>
-  <si>
-    <t>r6</t>
-  </si>
-  <si>
-    <t>r7</t>
-  </si>
-  <si>
-    <t>r8</t>
-  </si>
-  <si>
-    <t>r9</t>
-  </si>
-  <si>
-    <t>r10</t>
-  </si>
-  <si>
-    <t>r11</t>
-  </si>
-  <si>
-    <t>r12</t>
-  </si>
-  <si>
-    <t>r13</t>
-  </si>
-  <si>
-    <t>r14</t>
-  </si>
-  <si>
-    <t>r15</t>
-  </si>
-  <si>
-    <t>r16</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Metabolite name</t>
-  </si>
-  <si>
-    <t>balanced?</t>
-  </si>
-  <si>
-    <t>active?</t>
-  </si>
-  <si>
-    <t>fixed?</t>
-  </si>
-  <si>
-    <t>measured?</t>
-  </si>
-  <si>
-    <t>reaction name</t>
-  </si>
-  <si>
-    <t>transportRxn?</t>
-  </si>
-  <si>
-    <t>modelled?</t>
-  </si>
-  <si>
-    <t>Isoenzymes</t>
-  </si>
-  <si>
-    <t>g12</t>
-  </si>
-  <si>
-    <t>g456</t>
-  </si>
-  <si>
-    <t>met</t>
-  </si>
-  <si>
-    <t>rxn</t>
-  </si>
-  <si>
-    <t>∆Gr'_min (kJ/mol)</t>
-  </si>
-  <si>
-    <t>∆Gr'_max (kJ/mol)</t>
-  </si>
-  <si>
-    <t>min (mM)</t>
-  </si>
-  <si>
-    <t>max (mM)</t>
-  </si>
-  <si>
-    <t>Fluxes (umol/gdcw/h)</t>
-  </si>
-  <si>
-    <t>MBo10_mean</t>
-  </si>
-  <si>
-    <t>MBo10_std</t>
-  </si>
-  <si>
-    <t>MBo10_mean2</t>
-  </si>
-  <si>
-    <t>MBo10_std2</t>
-  </si>
-  <si>
-    <t>enzyme/rxn</t>
-  </si>
-  <si>
-    <t>MBo10_LB2</t>
-  </si>
-  <si>
-    <t>MBo10_meas2</t>
-  </si>
-  <si>
-    <t>MBo10_UB2</t>
-  </si>
-  <si>
-    <t>mets</t>
-  </si>
-  <si>
-    <t>reaction ID</t>
-  </si>
-  <si>
-    <t>kinetic mechanism</t>
-  </si>
-  <si>
-    <t>Substrate Order</t>
-  </si>
-  <si>
-    <t>Product Order</t>
-  </si>
-  <si>
-    <t>promiscuous</t>
-  </si>
-  <si>
-    <t>inhibitors</t>
-  </si>
-  <si>
-    <t>activators</t>
-  </si>
-  <si>
-    <t>negative effector</t>
-  </si>
-  <si>
-    <t>positive effector</t>
-  </si>
-  <si>
-    <t>allosteric</t>
-  </si>
-  <si>
-    <t>subunits</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>orderedBiBi</t>
-  </si>
-  <si>
-    <t>m1 me</t>
-  </si>
-  <si>
-    <t>m4 m3</t>
-  </si>
-  <si>
-    <t>m4 m5</t>
-  </si>
-  <si>
-    <t>m1 m2</t>
-  </si>
-  <si>
-    <t>UniUni</t>
-  </si>
-  <si>
-    <t>m5 m1</t>
-  </si>
-  <si>
-    <t>m3 m6</t>
-  </si>
-  <si>
-    <t>m1 m15</t>
-  </si>
-  <si>
-    <t>orderedUniBi</t>
-  </si>
-  <si>
-    <t>m8 m7</t>
-  </si>
-  <si>
-    <t>orderedTerBi</t>
-  </si>
-  <si>
-    <t>randomBiBi</t>
-  </si>
-  <si>
-    <t>massAction</t>
-  </si>
-  <si>
-    <t>fixedExchange</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="107">
+  <si>
+    <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toy_model3_isoenzymes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORACLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMINCON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LP solver (linprog or gurobi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of model structures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of particles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parallel mode (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolite name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balanced?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">active?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fixed?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">measured?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transportRxn?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modelled?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isoenzymes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">met</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆Gr'_min (kJ/mol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆Gr'_max (kJ/mol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min (mM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max (mM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluxes (umol/gdcw/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_std</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_mean2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_std2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enzyme/rxn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_LB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_meas2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_UB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kinetic mechanism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substrate Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promiscuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inhibitors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative effector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive effector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allosteric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subunits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedBiBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m1 me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m4 m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m4 m5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m1 m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UniUni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5 m1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3 m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m1 m15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedUniBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m8 m7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedTerBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">randomBiBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">massAction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fixedExchange</t>
   </si>
 </sst>
 </file>
@@ -354,17 +360,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.00E+00"/>
     <numFmt numFmtId="167" formatCode="0.000000000"/>
     <numFmt numFmtId="168" formatCode="0.00"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -386,6 +393,15 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -411,23 +427,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -515,7 +517,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -524,39 +526,43 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -564,95 +570,95 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -677,15 +683,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="1" sqref="1:17 D21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -717,17 +723,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>1</v>
+      <c r="B5" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
@@ -735,44 +741,44 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1</v>
@@ -780,21 +786,29 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="0" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -809,53 +823,53 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:B5 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="20" t="s">
+      <c r="A1" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="C1" s="21" t="s">
         <v>72</v>
       </c>
+      <c r="D1" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="21" t="n">
+      <c r="A2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="22" t="n">
         <v>0.0389111460487091</v>
       </c>
-      <c r="C2" s="21" t="n">
+      <c r="C2" s="22" t="n">
         <v>0.0015</v>
       </c>
-      <c r="D2" s="21" t="n">
+      <c r="D2" s="22" t="n">
         <v>0.0389111460487091</v>
       </c>
-      <c r="E2" s="21" t="n">
+      <c r="E2" s="22" t="n">
         <v>0.0015</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -870,257 +884,257 @@
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:B5 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="23" t="s">
+      <c r="A1" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>76</v>
       </c>
+      <c r="C1" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="24" t="n">
+      <c r="A2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="25" t="n">
         <v>0.99</v>
       </c>
-      <c r="C2" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="24" t="n">
+      <c r="C2" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="25" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="24" t="n">
+      <c r="A3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="25" t="n">
         <v>0.99</v>
       </c>
-      <c r="C3" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="24" t="n">
+      <c r="C3" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="25" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="24" t="n">
+      <c r="A4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="25" t="n">
         <v>0.99</v>
       </c>
-      <c r="C4" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="24" t="n">
+      <c r="C4" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="25" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="24" t="n">
+      <c r="A5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="25" t="n">
         <v>0.99</v>
       </c>
-      <c r="C5" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="24" t="n">
+      <c r="C5" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="25" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="24" t="n">
+      <c r="A6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="25" t="n">
         <v>0.99</v>
       </c>
-      <c r="C6" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="24" t="n">
+      <c r="C6" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="25" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="24" t="n">
+      <c r="A7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="25" t="n">
         <v>0.99</v>
       </c>
-      <c r="C7" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="24" t="n">
+      <c r="C7" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="25" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="24" t="n">
+      <c r="A8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="25" t="n">
         <v>0.99</v>
       </c>
-      <c r="C8" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="24" t="n">
+      <c r="C8" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="25" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="24" t="n">
+      <c r="A9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="25" t="n">
         <v>0.99</v>
       </c>
-      <c r="C9" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="24" t="n">
+      <c r="C9" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="25" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="24" t="n">
+      <c r="A10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="25" t="n">
         <v>0.99</v>
       </c>
-      <c r="C10" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="24" t="n">
+      <c r="C10" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="25" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="24" t="n">
+      <c r="A11" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="25" t="n">
         <v>0.99</v>
       </c>
-      <c r="C11" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="24" t="n">
+      <c r="C11" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="25" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="24" t="n">
+      <c r="A12" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="25" t="n">
         <v>0.99</v>
       </c>
-      <c r="C12" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="24" t="n">
+      <c r="C12" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="25" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="24" t="n">
+      <c r="A13" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="25" t="n">
         <v>0.99</v>
       </c>
-      <c r="C13" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="24" t="n">
+      <c r="C13" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="25" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="24" t="n">
+      <c r="A14" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="25" t="n">
         <v>0.99</v>
       </c>
-      <c r="C14" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="24" t="n">
+      <c r="C14" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="25" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="24" t="n">
+      <c r="A15" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="25" t="n">
         <v>0.99</v>
       </c>
-      <c r="C15" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="24" t="n">
+      <c r="C15" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="25" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="24" t="n">
+      <c r="A16" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="25" t="n">
         <v>0.99</v>
       </c>
-      <c r="C16" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="24" t="n">
+      <c r="C16" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="25" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="24" t="n">
+      <c r="A17" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="25" t="n">
         <v>0.99</v>
       </c>
-      <c r="C17" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="24" t="n">
+      <c r="C17" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="25" t="n">
         <v>1.01</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1135,277 +1149,277 @@
   </sheetPr>
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:B5 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="10"/>
+      <c r="D1" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="24" t="n">
+      <c r="A2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="25" t="n">
         <v>0.99</v>
       </c>
-      <c r="C2" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="24" t="n">
+      <c r="C2" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="25" t="n">
         <v>1.01</v>
       </c>
-      <c r="E2" s="16"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="24" t="n">
+      <c r="A3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="25" t="n">
         <v>0.99</v>
       </c>
-      <c r="C3" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="24" t="n">
+      <c r="C3" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="25" t="n">
         <v>1.01</v>
       </c>
-      <c r="E3" s="16"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="24" t="n">
+      <c r="A4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="25" t="n">
         <v>0.99</v>
       </c>
-      <c r="C4" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="24" t="n">
+      <c r="C4" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="25" t="n">
         <v>1.01</v>
       </c>
-      <c r="E4" s="16"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="24" t="n">
+      <c r="A5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="25" t="n">
         <v>0.99</v>
       </c>
-      <c r="C5" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="24" t="n">
+      <c r="C5" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="25" t="n">
         <v>1.01</v>
       </c>
-      <c r="E5" s="16"/>
+      <c r="E5" s="17"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="24" t="n">
+      <c r="A6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="25" t="n">
         <v>0.99</v>
       </c>
-      <c r="C6" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="24" t="n">
+      <c r="C6" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="25" t="n">
         <v>1.01</v>
       </c>
-      <c r="E6" s="16"/>
+      <c r="E6" s="17"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="24" t="n">
+      <c r="A7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="25" t="n">
         <v>0.99</v>
       </c>
-      <c r="C7" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="24" t="n">
+      <c r="C7" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="25" t="n">
         <v>1.01</v>
       </c>
-      <c r="E7" s="16"/>
+      <c r="E7" s="17"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="24" t="n">
+      <c r="A8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="25" t="n">
         <v>0.99</v>
       </c>
-      <c r="C8" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="24" t="n">
+      <c r="C8" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="25" t="n">
         <v>1.01</v>
       </c>
-      <c r="E8" s="16"/>
+      <c r="E8" s="17"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="24" t="n">
+      <c r="A9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="25" t="n">
         <v>0.99</v>
       </c>
-      <c r="C9" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="24" t="n">
+      <c r="C9" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="25" t="n">
         <v>1.01</v>
       </c>
-      <c r="E9" s="16"/>
+      <c r="E9" s="17"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="24" t="n">
+      <c r="A10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="25" t="n">
         <v>0.99</v>
       </c>
-      <c r="C10" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="24" t="n">
+      <c r="C10" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="25" t="n">
         <v>1.01</v>
       </c>
-      <c r="E10" s="16"/>
+      <c r="E10" s="17"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="24" t="n">
+      <c r="A11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="25" t="n">
         <v>0.99</v>
       </c>
-      <c r="C11" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="24" t="n">
+      <c r="C11" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="25" t="n">
         <v>1.01</v>
       </c>
-      <c r="E11" s="16"/>
+      <c r="E11" s="17"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="24" t="n">
+      <c r="A12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="25" t="n">
         <v>0.99</v>
       </c>
-      <c r="C12" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="24" t="n">
+      <c r="C12" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="25" t="n">
         <v>1.01</v>
       </c>
-      <c r="E12" s="16"/>
+      <c r="E12" s="17"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="24" t="n">
+      <c r="A13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="25" t="n">
         <v>0.99</v>
       </c>
-      <c r="C13" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="24" t="n">
+      <c r="C13" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="25" t="n">
         <v>1.01</v>
       </c>
-      <c r="E13" s="16"/>
+      <c r="E13" s="17"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="24" t="n">
+      <c r="A14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="25" t="n">
         <v>0.99</v>
       </c>
-      <c r="C14" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="24" t="n">
+      <c r="C14" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="25" t="n">
         <v>1.01</v>
       </c>
-      <c r="E14" s="16"/>
+      <c r="E14" s="17"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="24" t="n">
+      <c r="A15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="25" t="n">
         <v>0.99</v>
       </c>
-      <c r="C15" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="24" t="n">
+      <c r="C15" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="25" t="n">
         <v>1.01</v>
       </c>
-      <c r="E15" s="16"/>
+      <c r="E15" s="17"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="24" t="n">
+      <c r="A16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="25" t="n">
         <v>0.99</v>
       </c>
-      <c r="C16" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="24" t="n">
+      <c r="C16" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="25" t="n">
         <v>1.01</v>
       </c>
-      <c r="E16" s="16"/>
+      <c r="E16" s="17"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="24" t="n">
+      <c r="A17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="25" t="n">
         <v>0.99</v>
       </c>
-      <c r="C17" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="24" t="n">
+      <c r="C17" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="25" t="n">
         <v>1.01</v>
       </c>
-      <c r="E17" s="16"/>
+      <c r="E17" s="17"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="26"/>
+      <c r="A18" s="27"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1420,397 +1434,397 @@
   </sheetPr>
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:B5 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="30" customFormat="true" ht="30.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="29" t="s">
+    <row r="1" s="31" customFormat="true" ht="30.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="C1" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="D1" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="E1" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="F1" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="G1" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="H1" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="I1" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="J1" s="31" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="2" s="32" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="31" t="s">
+      <c r="K1" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="L1" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="32" t="s">
+    </row>
+    <row r="2" s="33" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="C2" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="J2" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="31" t="n">
+      <c r="D2" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="32" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="32" t="s">
+      <c r="A3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="33"/>
+      <c r="J3" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="J4" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="31" t="n">
+      <c r="C5" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="32" t="n">
+        <v>4</v>
+      </c>
+      <c r="L5" s="33"/>
+    </row>
+    <row r="6" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="J7" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" s="34" customFormat="true" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="32" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="J4" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="31" t="n">
+      <c r="L10" s="33"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="32" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="32" t="s">
+      <c r="L12" s="35"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="31" t="n">
-        <v>4</v>
-      </c>
-      <c r="L5" s="32"/>
-    </row>
-    <row r="6" s="32" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="H6" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="31" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="H7" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="J7" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="31" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="J8" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="31" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="J9" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="31" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" s="33" customFormat="true" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="31" t="n">
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="L10" s="32"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="31" t="n">
-        <v>2</v>
-      </c>
-      <c r="L12" s="34"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="31" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" s="31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" s="33" customFormat="true" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" s="34"/>
-    </row>
-    <row r="16" s="35" customFormat="true" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
+      <c r="A14" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" s="31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" s="35" customFormat="true" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
+      <c r="B14" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" s="34" customFormat="true" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="31" t="n">
+      <c r="B15" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="35"/>
+    </row>
+    <row r="16" s="36" customFormat="true" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" s="36" customFormat="true" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="32" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1825,71 +1839,71 @@
   </sheetPr>
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:B5 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-1</v>
@@ -1942,7 +1956,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-1</v>
@@ -1995,7 +2009,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -2048,7 +2062,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-1</v>
@@ -2101,7 +2115,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-1</v>
@@ -2154,7 +2168,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -2207,7 +2221,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2260,7 +2274,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2313,7 +2327,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2366,7 +2380,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-1</v>
@@ -2419,7 +2433,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2472,7 +2486,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2525,7 +2539,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2578,7 +2592,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1</v>
@@ -2631,7 +2645,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -2684,7 +2698,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -2738,7 +2752,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2753,359 +2767,359 @@
   </sheetPr>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:B5 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>55</v>
       </c>
+      <c r="E1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="7" t="n">
+      <c r="A2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7" t="n">
+      <c r="A3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="7" t="n">
+      <c r="A4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7" t="n">
+      <c r="A5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7" t="n">
+      <c r="A6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7" t="n">
+      <c r="A7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7" t="n">
+      <c r="A8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7" t="n">
+      <c r="A9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="7" t="n">
+      <c r="A10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="7" t="n">
+      <c r="A11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="7" t="n">
+      <c r="A12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="7" t="n">
+      <c r="A13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="7" t="n">
+      <c r="A14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="7" t="n">
+      <c r="A15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="7" t="n">
+      <c r="A16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="7" t="n">
+      <c r="A17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="8" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3120,287 +3134,287 @@
   </sheetPr>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:B5 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="11"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="11"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="11"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="11"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="11"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="11"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="11"/>
+      <c r="B16" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="11"/>
+      <c r="A17" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3415,104 +3429,104 @@
   </sheetPr>
   <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:B5 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
-        <v>49</v>
+      <c r="A17" s="12" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3527,105 +3541,105 @@
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:B5 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="11"/>
+      <c r="A1" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>18</v>
+      <c r="A2" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>19</v>
+      <c r="A3" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>20</v>
+      <c r="A4" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>21</v>
+      <c r="A5" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>22</v>
+      <c r="A6" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>23</v>
+      <c r="A7" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>24</v>
+      <c r="A8" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
-        <v>25</v>
+      <c r="A9" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
-        <v>26</v>
+      <c r="A10" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
-        <v>27</v>
+      <c r="A11" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
-        <v>28</v>
+      <c r="A12" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
-        <v>29</v>
+      <c r="A13" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
-        <v>30</v>
+      <c r="A14" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
-        <v>31</v>
+      <c r="A15" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
-        <v>32</v>
+      <c r="A16" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
-        <v>33</v>
+      <c r="A17" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3640,104 +3654,104 @@
   </sheetPr>
   <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:B5 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>62</v>
+      <c r="A1" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>18</v>
+      <c r="A2" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>19</v>
+      <c r="A3" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>20</v>
+      <c r="A4" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>21</v>
+      <c r="A5" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>22</v>
+      <c r="A6" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>23</v>
+      <c r="A7" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>24</v>
+      <c r="A8" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
-        <v>25</v>
+      <c r="A9" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
-        <v>26</v>
+      <c r="A10" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
-        <v>27</v>
+      <c r="A11" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
-        <v>28</v>
+      <c r="A12" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
-        <v>29</v>
+      <c r="A13" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
-        <v>30</v>
+      <c r="A14" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
-        <v>31</v>
+      <c r="A15" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
-        <v>32</v>
+      <c r="A16" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
-        <v>33</v>
+      <c r="A17" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3752,222 +3766,222 @@
   </sheetPr>
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:B5 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="9" t="s">
         <v>65</v>
       </c>
+      <c r="B1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="13" t="n">
+      <c r="A2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="14" t="n">
         <f aca="false">-18.1-0.9</f>
         <v>-19</v>
       </c>
-      <c r="C2" s="14" t="n">
+      <c r="C2" s="15" t="n">
         <f aca="false">-18.1+0.9</f>
         <v>-17.2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="13" t="n">
+      <c r="A3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="14" t="n">
         <f aca="false">-18.1-0.9</f>
         <v>-19</v>
       </c>
-      <c r="C3" s="14" t="n">
+      <c r="C3" s="15" t="n">
         <f aca="false">-18.1+0.9</f>
         <v>-17.2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="13" t="n">
+      <c r="A4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="14" t="n">
         <v>1.7</v>
       </c>
-      <c r="C4" s="14" t="n">
+      <c r="C4" s="15" t="n">
         <v>3.3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="13" t="n">
+      <c r="A5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="14" t="n">
         <f aca="false">-16.2-1.3</f>
         <v>-17.5</v>
       </c>
-      <c r="C5" s="14" t="n">
+      <c r="C5" s="15" t="n">
         <f aca="false">-16.2+1.3</f>
         <v>-14.9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="13" t="n">
+      <c r="A6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="14" t="n">
         <f aca="false">-16.2-1.3</f>
         <v>-17.5</v>
       </c>
-      <c r="C6" s="14" t="n">
+      <c r="C6" s="15" t="n">
         <f aca="false">-16.2+1.3</f>
         <v>-14.9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="13" t="n">
+      <c r="A7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="14" t="n">
         <f aca="false">-16.2-1.3</f>
         <v>-17.5</v>
       </c>
-      <c r="C7" s="14" t="n">
+      <c r="C7" s="15" t="n">
         <f aca="false">-16.2+1.3</f>
         <v>-14.9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="15" t="n">
+      <c r="A8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="16" t="n">
         <v>19.2</v>
       </c>
-      <c r="C8" s="14" t="n">
+      <c r="C8" s="15" t="n">
         <v>21.2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="13" t="n">
+      <c r="A9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="14" t="n">
         <v>5.1</v>
       </c>
-      <c r="C9" s="14" t="n">
+      <c r="C9" s="15" t="n">
         <v>6.7</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="15" t="n">
+      <c r="A10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="16" t="n">
         <f aca="false">5.5-1.1</f>
         <v>4.4</v>
       </c>
-      <c r="C10" s="14" t="n">
+      <c r="C10" s="15" t="n">
         <f aca="false">5.5+1.1</f>
         <v>6.6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="13" t="n">
+      <c r="A11" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="14" t="n">
         <f aca="false">-18.6-0.9</f>
         <v>-19.5</v>
       </c>
-      <c r="C11" s="14" t="n">
+      <c r="C11" s="15" t="n">
         <f aca="false">-18.6+0.9</f>
         <v>-17.7</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="15" t="n">
+      <c r="A12" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="16" t="n">
         <f aca="false">4.2-0.7</f>
         <v>3.5</v>
       </c>
-      <c r="C12" s="14" t="n">
+      <c r="C12" s="15" t="n">
         <f aca="false">4.2+0.7</f>
         <v>4.9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="13" t="n">
+      <c r="A13" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="14" t="n">
         <v>-0.7</v>
       </c>
-      <c r="C13" s="14" t="n">
+      <c r="C13" s="15" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="16" t="n">
+      <c r="A14" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="17" t="n">
         <v>-100</v>
       </c>
-      <c r="C14" s="16" t="n">
+      <c r="C14" s="17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="16" t="n">
+      <c r="A15" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="17" t="n">
         <v>-50</v>
       </c>
-      <c r="C15" s="16" t="n">
+      <c r="C15" s="17" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="16" t="n">
+      <c r="A16" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="17" t="n">
         <v>-50</v>
       </c>
-      <c r="C16" s="16" t="n">
+      <c r="C16" s="17" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="16" t="n">
+      <c r="A17" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="17" t="n">
         <v>-50</v>
       </c>
-      <c r="C17" s="16" t="n">
+      <c r="C17" s="17" t="n">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3982,206 +3996,206 @@
   </sheetPr>
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:B5 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>67</v>
+      <c r="A1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="17" t="n">
+      <c r="A2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="18" t="n">
         <v>0.000975</v>
       </c>
-      <c r="C2" s="17" t="n">
+      <c r="C2" s="18" t="n">
         <v>0.00254</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="17" t="n">
+      <c r="A3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="18" t="n">
         <v>0.00032</v>
       </c>
-      <c r="C3" s="17" t="n">
+      <c r="C3" s="18" t="n">
         <v>0.00038</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="17" t="n">
+      <c r="A4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="18" t="n">
         <v>0.000202</v>
       </c>
-      <c r="C4" s="17" t="n">
+      <c r="C4" s="18" t="n">
         <v>0.000319</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="17" t="n">
+      <c r="A5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="18" t="n">
         <v>0.000168</v>
       </c>
-      <c r="C5" s="17" t="n">
+      <c r="C5" s="18" t="n">
         <v>0.000344</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="17" t="n">
+      <c r="A6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="18" t="n">
         <v>5.9E-005</v>
       </c>
-      <c r="C6" s="17" t="n">
+      <c r="C6" s="18" t="n">
         <v>8E-005</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="17" t="n">
+      <c r="A7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="18" t="n">
         <v>4.53E-005</v>
       </c>
-      <c r="C7" s="17" t="n">
+      <c r="C7" s="18" t="n">
         <v>5.55E-005</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="17" t="n">
+      <c r="A8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="18" t="n">
         <v>0.000113</v>
       </c>
-      <c r="C8" s="17" t="n">
+      <c r="C8" s="18" t="n">
         <v>0.000145</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="17" t="n">
+      <c r="A9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="18" t="n">
         <v>1.15E-005</v>
       </c>
-      <c r="C9" s="17" t="n">
+      <c r="C9" s="18" t="n">
         <v>2.7E-005</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="17" t="n">
+      <c r="A10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="18" t="n">
         <v>0.000161</v>
       </c>
-      <c r="C10" s="17" t="n">
+      <c r="C10" s="18" t="n">
         <v>0.000306</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="17" t="n">
+      <c r="A11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="18" t="n">
         <v>1.95E-007</v>
       </c>
-      <c r="C11" s="17" t="n">
+      <c r="C11" s="18" t="n">
         <v>9.88E-007</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="17" t="n">
+      <c r="A12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="18" t="n">
         <v>0.045</v>
       </c>
-      <c r="C12" s="17" t="n">
+      <c r="C12" s="18" t="n">
         <v>0.055</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="17" t="n">
+      <c r="A13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="18" t="n">
         <v>2E-006</v>
       </c>
-      <c r="C13" s="17" t="n">
+      <c r="C13" s="18" t="n">
         <v>2.5E-006</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="17" t="n">
+      <c r="A14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="18" t="n">
         <v>3.5E-007</v>
       </c>
-      <c r="C14" s="17" t="n">
+      <c r="C14" s="18" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="17" t="n">
+      <c r="A15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="18" t="n">
         <v>8E-006</v>
       </c>
-      <c r="C15" s="17" t="n">
+      <c r="C15" s="18" t="n">
         <v>1.1E-005</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="17" t="n">
+      <c r="A16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="18" t="n">
         <v>8.46E-006</v>
       </c>
-      <c r="C16" s="17" t="n">
+      <c r="C16" s="18" t="n">
         <v>1.5E-005</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="18" t="n">
+      <c r="A17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="19" t="n">
         <v>0.0175</v>
       </c>
-      <c r="C17" s="18" t="n">
+      <c r="C17" s="19" t="n">
         <v>0.185</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model3_isoenzymes.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model3_isoenzymes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="101">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -43,13 +43,13 @@
     <t xml:space="preserve">toy_model3_isoenzymes</t>
   </si>
   <si>
-    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORACLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+    <t xml:space="preserve">Sampling mode (GRASP or rejection)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRASP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT or FMINCON (default))</t>
   </si>
   <si>
     <t xml:space="preserve">FMINCON</t>
@@ -76,18 +76,9 @@
     <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
   </si>
   <si>
-    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
   </si>
   <si>
-    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
   </si>
   <si>
@@ -199,12 +190,6 @@
     <t xml:space="preserve">balanced?</t>
   </si>
   <si>
-    <t xml:space="preserve">active?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fixed?</t>
-  </si>
-  <si>
     <t xml:space="preserve">measured?</t>
   </si>
   <si>
@@ -212,9 +197,6 @@
   </si>
   <si>
     <t xml:space="preserve">transportRxn?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modelled?</t>
   </si>
   <si>
     <t xml:space="preserve">Isoenzymes</t>
@@ -683,10 +665,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -699,24 +681,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="0" t="s">
@@ -775,33 +757,15 @@
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B11" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -824,7 +788,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:B5 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -834,24 +798,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="20" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B2" s="22" t="n">
         <v>0.0389111460487091</v>
@@ -885,7 +849,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:B5 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -895,21 +859,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="23" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B2" s="25" t="n">
         <v>0.99</v>
@@ -923,7 +887,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B3" s="25" t="n">
         <v>0.99</v>
@@ -937,7 +901,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B4" s="25" t="n">
         <v>0.99</v>
@@ -951,7 +915,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B5" s="25" t="n">
         <v>0.99</v>
@@ -965,7 +929,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B6" s="25" t="n">
         <v>0.99</v>
@@ -979,7 +943,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B7" s="25" t="n">
         <v>0.99</v>
@@ -993,7 +957,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B8" s="25" t="n">
         <v>0.99</v>
@@ -1007,7 +971,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B9" s="25" t="n">
         <v>0.99</v>
@@ -1021,7 +985,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B10" s="25" t="n">
         <v>0.99</v>
@@ -1035,7 +999,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B11" s="25" t="n">
         <v>0.99</v>
@@ -1049,7 +1013,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B12" s="25" t="n">
         <v>0.99</v>
@@ -1063,7 +1027,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B13" s="25" t="n">
         <v>0.99</v>
@@ -1077,7 +1041,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B14" s="25" t="n">
         <v>0.99</v>
@@ -1091,7 +1055,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B15" s="25" t="n">
         <v>0.99</v>
@@ -1105,7 +1069,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B16" s="25" t="n">
         <v>0.99</v>
@@ -1119,7 +1083,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B17" s="25" t="n">
         <v>0.99</v>
@@ -1150,7 +1114,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:B5 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1160,22 +1124,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="26" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E1" s="11"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" s="25" t="n">
         <v>0.99</v>
@@ -1190,7 +1154,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3" s="25" t="n">
         <v>0.99</v>
@@ -1205,7 +1169,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B4" s="25" t="n">
         <v>0.99</v>
@@ -1220,7 +1184,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" s="25" t="n">
         <v>0.99</v>
@@ -1235,7 +1199,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" s="25" t="n">
         <v>0.99</v>
@@ -1250,7 +1214,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" s="25" t="n">
         <v>0.99</v>
@@ -1265,7 +1229,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B8" s="25" t="n">
         <v>0.99</v>
@@ -1280,7 +1244,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B9" s="25" t="n">
         <v>0.99</v>
@@ -1295,7 +1259,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10" s="25" t="n">
         <v>0.99</v>
@@ -1310,7 +1274,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B11" s="25" t="n">
         <v>0.99</v>
@@ -1325,7 +1289,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B12" s="25" t="n">
         <v>0.99</v>
@@ -1340,7 +1304,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B13" s="25" t="n">
         <v>0.99</v>
@@ -1355,7 +1319,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B14" s="25" t="n">
         <v>0.99</v>
@@ -1370,7 +1334,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B15" s="25" t="n">
         <v>0.99</v>
@@ -1385,7 +1349,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B16" s="25" t="n">
         <v>0.99</v>
@@ -1400,7 +1364,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B17" s="25" t="n">
         <v>0.99</v>
@@ -1435,7 +1399,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:B5 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1445,57 +1409,57 @@
   <sheetData>
     <row r="1" s="31" customFormat="true" ht="30.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="H1" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="I1" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="J1" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="K1" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="L1" s="31" t="s">
         <v>85</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="H1" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="I1" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="J1" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="K1" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="L1" s="31" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" s="33" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="J2" s="32" t="n">
         <v>1</v>
@@ -1506,22 +1470,22 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E3" s="33"/>
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
       <c r="H3" s="33" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I3" s="33"/>
       <c r="J3" s="32" t="n">
@@ -1533,10 +1497,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J4" s="32" t="n">
         <v>0</v>
@@ -1547,24 +1511,24 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B5" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="33" t="s">
-        <v>98</v>
-      </c>
       <c r="D5" s="33" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
       <c r="H5" s="33" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J5" s="32" t="n">
         <v>1</v>
@@ -1576,22 +1540,22 @@
     </row>
     <row r="6" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B6" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="33" t="s">
-        <v>98</v>
-      </c>
       <c r="D6" s="33" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J6" s="32" t="n">
         <v>1</v>
@@ -1602,19 +1566,19 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B7" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="33" t="s">
-        <v>98</v>
-      </c>
       <c r="D7" s="33" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J7" s="32" t="n">
         <v>1</v>
@@ -1625,16 +1589,16 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="J8" s="32" t="n">
         <v>1</v>
@@ -1645,10 +1609,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J9" s="32" t="n">
         <v>1</v>
@@ -1659,10 +1623,10 @@
     </row>
     <row r="10" s="34" customFormat="true" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
@@ -1678,10 +1642,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C11" s="34"/>
       <c r="D11" s="34"/>
@@ -1699,10 +1663,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C12" s="34"/>
       <c r="D12" s="34"/>
@@ -1721,10 +1685,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C13" s="34"/>
       <c r="D13" s="34"/>
@@ -1742,10 +1706,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C14" s="33"/>
       <c r="E14" s="33"/>
@@ -1762,10 +1726,10 @@
     </row>
     <row r="15" s="34" customFormat="true" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C15" s="33"/>
       <c r="E15" s="33"/>
@@ -1783,10 +1747,10 @@
     </row>
     <row r="16" s="36" customFormat="true" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C16" s="33"/>
       <c r="E16" s="33"/>
@@ -1803,10 +1767,10 @@
     </row>
     <row r="17" s="36" customFormat="true" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C17" s="33"/>
       <c r="E17" s="33"/>
@@ -1840,7 +1804,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:B5 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1850,60 +1814,60 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-1</v>
@@ -1956,7 +1920,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-1</v>
@@ -2009,7 +1973,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -2062,7 +2026,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-1</v>
@@ -2115,7 +2079,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-1</v>
@@ -2168,7 +2132,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -2221,7 +2185,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2274,7 +2238,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2327,7 +2291,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2380,7 +2344,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-1</v>
@@ -2433,7 +2397,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2486,7 +2450,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2539,7 +2503,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2592,7 +2556,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1</v>
@@ -2645,7 +2609,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -2698,7 +2662,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -2765,10 +2729,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:B5 A1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2778,341 +2742,239 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C2" s="8" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C3" s="8" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C4" s="8" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C5" s="8" t="n">
         <v>1</v>
       </c>
       <c r="D5" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C6" s="8" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C7" s="8" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8" s="8" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C9" s="8" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C10" s="8" t="n">
         <v>0</v>
       </c>
       <c r="D10" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C11" s="8" t="n">
         <v>0</v>
       </c>
       <c r="D11" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C12" s="8" t="n">
         <v>0</v>
       </c>
       <c r="D12" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C13" s="8" t="n">
         <v>1</v>
       </c>
       <c r="D13" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C14" s="8" t="n">
         <v>1</v>
       </c>
       <c r="D14" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C15" s="8" t="n">
         <v>1</v>
       </c>
       <c r="D15" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C16" s="8" t="n">
         <v>1</v>
       </c>
       <c r="D16" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C17" s="8" t="n">
         <v>1</v>
       </c>
       <c r="D17" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3132,10 +2994,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:B5 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3145,271 +3007,220 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="12"/>
+        <v>54</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C2" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>62</v>
+      <c r="D2" s="12" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C3" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="D3" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>62</v>
+      <c r="D3" s="12" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C4" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="D4" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="12"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C5" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>63</v>
+      <c r="D5" s="12" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C6" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="D6" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>63</v>
+      <c r="D6" s="12" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C7" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="D7" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>63</v>
+      <c r="D7" s="12" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C8" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="D8" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="12"/>
+      <c r="D8" s="12"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C9" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="D9" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="12"/>
+      <c r="D9" s="12"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C10" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="D10" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="12"/>
+      <c r="D10" s="12"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C11" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="D11" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="12"/>
+      <c r="D11" s="12"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C12" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="D12" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="12"/>
+      <c r="D12" s="12"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C13" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="D13" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="12"/>
+      <c r="D13" s="12"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C14" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="D14" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="12"/>
+      <c r="D14" s="12"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C15" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="D15" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="12"/>
+      <c r="D15" s="12"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C16" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="D16" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="12"/>
+      <c r="D16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C17" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="D17" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="12"/>
+      <c r="D17" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3430,7 +3241,7 @@
   <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:B5 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3440,87 +3251,87 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -3542,7 +3353,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:B5 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3552,88 +3363,88 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B1" s="12"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -3655,7 +3466,7 @@
   <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:B5 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3665,87 +3476,87 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -3767,7 +3578,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:B5 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3777,18 +3588,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B2" s="14" t="n">
         <f aca="false">-18.1-0.9</f>
@@ -3801,7 +3612,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B3" s="14" t="n">
         <f aca="false">-18.1-0.9</f>
@@ -3814,7 +3625,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B4" s="14" t="n">
         <v>1.7</v>
@@ -3825,7 +3636,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B5" s="14" t="n">
         <f aca="false">-16.2-1.3</f>
@@ -3838,7 +3649,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B6" s="14" t="n">
         <f aca="false">-16.2-1.3</f>
@@ -3851,7 +3662,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B7" s="14" t="n">
         <f aca="false">-16.2-1.3</f>
@@ -3864,7 +3675,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B8" s="16" t="n">
         <v>19.2</v>
@@ -3875,7 +3686,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B9" s="14" t="n">
         <v>5.1</v>
@@ -3886,7 +3697,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B10" s="16" t="n">
         <f aca="false">5.5-1.1</f>
@@ -3899,7 +3710,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B11" s="14" t="n">
         <f aca="false">-18.6-0.9</f>
@@ -3912,7 +3723,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B12" s="16" t="n">
         <f aca="false">4.2-0.7</f>
@@ -3925,7 +3736,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B13" s="14" t="n">
         <v>-0.7</v>
@@ -3936,7 +3747,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B14" s="17" t="n">
         <v>-100</v>
@@ -3947,7 +3758,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B15" s="17" t="n">
         <v>-50</v>
@@ -3958,7 +3769,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B16" s="17" t="n">
         <v>-50</v>
@@ -3969,7 +3780,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B17" s="17" t="n">
         <v>-50</v>
@@ -3997,7 +3808,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:B5 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4007,18 +3818,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" s="18" t="n">
         <v>0.000975</v>
@@ -4029,7 +3840,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3" s="18" t="n">
         <v>0.00032</v>
@@ -4040,7 +3851,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B4" s="18" t="n">
         <v>0.000202</v>
@@ -4051,7 +3862,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" s="18" t="n">
         <v>0.000168</v>
@@ -4062,7 +3873,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" s="18" t="n">
         <v>5.9E-005</v>
@@ -4073,7 +3884,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" s="18" t="n">
         <v>4.53E-005</v>
@@ -4084,7 +3895,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B8" s="18" t="n">
         <v>0.000113</v>
@@ -4095,7 +3906,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B9" s="18" t="n">
         <v>1.15E-005</v>
@@ -4106,7 +3917,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10" s="18" t="n">
         <v>0.000161</v>
@@ -4117,7 +3928,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B11" s="18" t="n">
         <v>1.95E-007</v>
@@ -4128,7 +3939,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B12" s="18" t="n">
         <v>0.045</v>
@@ -4139,7 +3950,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B13" s="18" t="n">
         <v>2E-006</v>
@@ -4150,7 +3961,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B14" s="18" t="n">
         <v>3.5E-007</v>
@@ -4161,7 +3972,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B15" s="18" t="n">
         <v>8E-006</v>
@@ -4172,7 +3983,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B16" s="18" t="n">
         <v>8.46E-006</v>
@@ -4183,7 +3994,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B17" s="19" t="n">
         <v>0.0175</v>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model3_isoenzymes.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model3_isoenzymes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -667,8 +667,8 @@
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -718,7 +718,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2996,7 +2996,7 @@
   </sheetPr>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model3_isoenzymes.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model3_isoenzymes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="100">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -188,9 +188,6 @@
   </si>
   <si>
     <t xml:space="preserve">balanced?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measured?</t>
   </si>
   <si>
     <t xml:space="preserve">reaction name</t>
@@ -348,7 +345,7 @@
     <numFmt numFmtId="167" formatCode="0.000000000"/>
     <numFmt numFmtId="168" formatCode="0.00"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -388,14 +385,6 @@
     <font>
       <b val="true"/>
       <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -499,7 +488,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -524,15 +513,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -548,7 +533,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -564,19 +549,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -588,19 +573,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -628,23 +613,23 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -667,7 +652,7 @@
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -797,36 +782,36 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="21" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="22" t="n">
+      <c r="B2" s="21" t="n">
         <v>0.0389111460487091</v>
       </c>
-      <c r="C2" s="22" t="n">
+      <c r="C2" s="21" t="n">
         <v>0.0015</v>
       </c>
-      <c r="D2" s="22" t="n">
+      <c r="D2" s="21" t="n">
         <v>0.0389111460487091</v>
       </c>
-      <c r="E2" s="22" t="n">
+      <c r="E2" s="21" t="n">
         <v>0.0015</v>
       </c>
     </row>
@@ -858,240 +843,240 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="24" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="25" t="n">
+      <c r="B2" s="24" t="n">
         <v>0.99</v>
       </c>
-      <c r="C2" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="25" t="n">
+      <c r="C2" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="24" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="25" t="n">
+      <c r="B3" s="24" t="n">
         <v>0.99</v>
       </c>
-      <c r="C3" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="25" t="n">
+      <c r="C3" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="24" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="25" t="n">
+      <c r="B4" s="24" t="n">
         <v>0.99</v>
       </c>
-      <c r="C4" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="25" t="n">
+      <c r="C4" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="24" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="25" t="n">
+      <c r="B5" s="24" t="n">
         <v>0.99</v>
       </c>
-      <c r="C5" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="25" t="n">
+      <c r="C5" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="24" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="25" t="n">
+      <c r="B6" s="24" t="n">
         <v>0.99</v>
       </c>
-      <c r="C6" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="25" t="n">
+      <c r="C6" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="24" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="25" t="n">
+      <c r="B7" s="24" t="n">
         <v>0.99</v>
       </c>
-      <c r="C7" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="25" t="n">
+      <c r="C7" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="24" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="25" t="n">
+      <c r="B8" s="24" t="n">
         <v>0.99</v>
       </c>
-      <c r="C8" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="25" t="n">
+      <c r="C8" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="24" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="25" t="n">
+      <c r="B9" s="24" t="n">
         <v>0.99</v>
       </c>
-      <c r="C9" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="25" t="n">
+      <c r="C9" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="24" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="25" t="n">
+      <c r="B10" s="24" t="n">
         <v>0.99</v>
       </c>
-      <c r="C10" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="25" t="n">
+      <c r="C10" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="24" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="25" t="n">
+      <c r="B11" s="24" t="n">
         <v>0.99</v>
       </c>
-      <c r="C11" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="25" t="n">
+      <c r="C11" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="24" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="25" t="n">
+      <c r="B12" s="24" t="n">
         <v>0.99</v>
       </c>
-      <c r="C12" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="25" t="n">
+      <c r="C12" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="24" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="25" t="n">
+      <c r="B13" s="24" t="n">
         <v>0.99</v>
       </c>
-      <c r="C13" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="25" t="n">
+      <c r="C13" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="24" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="25" t="n">
+      <c r="B14" s="24" t="n">
         <v>0.99</v>
       </c>
-      <c r="C14" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="25" t="n">
+      <c r="C14" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="24" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="25" t="n">
+      <c r="B15" s="24" t="n">
         <v>0.99</v>
       </c>
-      <c r="C15" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="25" t="n">
+      <c r="C15" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="24" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="25" t="n">
+      <c r="B16" s="24" t="n">
         <v>0.99</v>
       </c>
-      <c r="C16" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="25" t="n">
+      <c r="C16" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="24" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="25" t="n">
+      <c r="B17" s="24" t="n">
         <v>0.99</v>
       </c>
-      <c r="C17" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="25" t="n">
+      <c r="C17" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="24" t="n">
         <v>1.01</v>
       </c>
     </row>
@@ -1123,262 +1108,262 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="24" t="s">
+      <c r="A1" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="11"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="25" t="n">
+      <c r="B2" s="24" t="n">
         <v>0.99</v>
       </c>
-      <c r="C2" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="25" t="n">
+      <c r="C2" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="24" t="n">
         <v>1.01</v>
       </c>
-      <c r="E2" s="17"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="25" t="n">
+      <c r="B3" s="24" t="n">
         <v>0.99</v>
       </c>
-      <c r="C3" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="25" t="n">
+      <c r="C3" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="24" t="n">
         <v>1.01</v>
       </c>
-      <c r="E3" s="17"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="25" t="n">
+      <c r="B4" s="24" t="n">
         <v>0.99</v>
       </c>
-      <c r="C4" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="25" t="n">
+      <c r="C4" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="24" t="n">
         <v>1.01</v>
       </c>
-      <c r="E4" s="17"/>
+      <c r="E4" s="16"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="25" t="n">
+      <c r="B5" s="24" t="n">
         <v>0.99</v>
       </c>
-      <c r="C5" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="25" t="n">
+      <c r="C5" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="24" t="n">
         <v>1.01</v>
       </c>
-      <c r="E5" s="17"/>
+      <c r="E5" s="16"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="25" t="n">
+      <c r="B6" s="24" t="n">
         <v>0.99</v>
       </c>
-      <c r="C6" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="25" t="n">
+      <c r="C6" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="24" t="n">
         <v>1.01</v>
       </c>
-      <c r="E6" s="17"/>
+      <c r="E6" s="16"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="25" t="n">
+      <c r="B7" s="24" t="n">
         <v>0.99</v>
       </c>
-      <c r="C7" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="25" t="n">
+      <c r="C7" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="24" t="n">
         <v>1.01</v>
       </c>
-      <c r="E7" s="17"/>
+      <c r="E7" s="16"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="25" t="n">
+      <c r="B8" s="24" t="n">
         <v>0.99</v>
       </c>
-      <c r="C8" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="25" t="n">
+      <c r="C8" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="24" t="n">
         <v>1.01</v>
       </c>
-      <c r="E8" s="17"/>
+      <c r="E8" s="16"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="25" t="n">
+      <c r="B9" s="24" t="n">
         <v>0.99</v>
       </c>
-      <c r="C9" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="25" t="n">
+      <c r="C9" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="24" t="n">
         <v>1.01</v>
       </c>
-      <c r="E9" s="17"/>
+      <c r="E9" s="16"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="25" t="n">
+      <c r="B10" s="24" t="n">
         <v>0.99</v>
       </c>
-      <c r="C10" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="25" t="n">
+      <c r="C10" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="24" t="n">
         <v>1.01</v>
       </c>
-      <c r="E10" s="17"/>
+      <c r="E10" s="16"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="25" t="n">
+      <c r="B11" s="24" t="n">
         <v>0.99</v>
       </c>
-      <c r="C11" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="25" t="n">
+      <c r="C11" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="24" t="n">
         <v>1.01</v>
       </c>
-      <c r="E11" s="17"/>
+      <c r="E11" s="16"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="25" t="n">
+      <c r="B12" s="24" t="n">
         <v>0.99</v>
       </c>
-      <c r="C12" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="25" t="n">
+      <c r="C12" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="24" t="n">
         <v>1.01</v>
       </c>
-      <c r="E12" s="17"/>
+      <c r="E12" s="16"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="25" t="n">
+      <c r="B13" s="24" t="n">
         <v>0.99</v>
       </c>
-      <c r="C13" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="25" t="n">
+      <c r="C13" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="24" t="n">
         <v>1.01</v>
       </c>
-      <c r="E13" s="17"/>
+      <c r="E13" s="16"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="25" t="n">
+      <c r="B14" s="24" t="n">
         <v>0.99</v>
       </c>
-      <c r="C14" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="25" t="n">
+      <c r="C14" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="24" t="n">
         <v>1.01</v>
       </c>
-      <c r="E14" s="17"/>
+      <c r="E14" s="16"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="25" t="n">
+      <c r="B15" s="24" t="n">
         <v>0.99</v>
       </c>
-      <c r="C15" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="25" t="n">
+      <c r="C15" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="24" t="n">
         <v>1.01</v>
       </c>
-      <c r="E15" s="17"/>
+      <c r="E15" s="16"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="25" t="n">
+      <c r="B16" s="24" t="n">
         <v>0.99</v>
       </c>
-      <c r="C16" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="25" t="n">
+      <c r="C16" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="24" t="n">
         <v>1.01</v>
       </c>
-      <c r="E16" s="17"/>
+      <c r="E16" s="16"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="25" t="n">
+      <c r="B17" s="24" t="n">
         <v>0.99</v>
       </c>
-      <c r="C17" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="25" t="n">
+      <c r="C17" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="24" t="n">
         <v>1.01</v>
       </c>
-      <c r="E17" s="17"/>
+      <c r="E17" s="16"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="27"/>
+      <c r="A18" s="26"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1407,381 +1392,381 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="31" customFormat="true" ht="30.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="28" t="s">
+    <row r="1" s="30" customFormat="true" ht="30.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="C1" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="D1" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="E1" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="F1" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="G1" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="H1" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="I1" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="J1" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="K1" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="L1" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="L1" s="31" t="s">
+    </row>
+    <row r="2" s="32" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="31" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="2" s="33" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="32" t="s">
+      <c r="C2" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="D2" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="H2" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="J2" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="J2" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="33" t="s">
+      <c r="D3" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="32"/>
+      <c r="J3" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="32" t="n">
+      <c r="J4" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="31" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="32" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="J4" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="32" t="n">
+      <c r="D5" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="31" t="n">
+        <v>4</v>
+      </c>
+      <c r="L5" s="32"/>
+    </row>
+    <row r="6" s="32" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" s="33" customFormat="true" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="31" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="32" t="n">
-        <v>4</v>
-      </c>
-      <c r="L5" s="33"/>
-    </row>
-    <row r="6" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="H6" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="32" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="H7" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="J7" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="32" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="J8" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="32" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="32" t="s">
+      <c r="L10" s="32"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="J9" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="32" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" s="34" customFormat="true" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="32" t="n">
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="L10" s="33"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="32" t="s">
+      <c r="L12" s="34"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="32" t="n">
-        <v>2</v>
-      </c>
-      <c r="L12" s="35"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="32" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="32" t="s">
+      <c r="C14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" s="33" customFormat="true" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" s="32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" s="34" customFormat="true" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" s="35"/>
-    </row>
-    <row r="16" s="36" customFormat="true" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="s">
+      <c r="C15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="34"/>
+    </row>
+    <row r="16" s="35" customFormat="true" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" s="32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" s="36" customFormat="true" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
+      <c r="B16" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" s="35" customFormat="true" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="32" t="n">
+      <c r="B17" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2729,9 +2714,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -2740,7 +2725,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>49</v>
       </c>
@@ -2750,232 +2735,181 @@
       <c r="C1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="8" t="n">
-        <v>0</v>
+      <c r="C2" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="8" t="n">
-        <v>0</v>
+      <c r="C3" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8" t="n">
+      <c r="C4" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8" t="n">
-        <v>0</v>
+      <c r="C5" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="8" t="n">
-        <v>0</v>
+      <c r="C6" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="8" t="n">
-        <v>0</v>
+      <c r="C7" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="8" t="n">
-        <v>0</v>
+      <c r="C8" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="8" t="n">
-        <v>0</v>
+      <c r="C9" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="8" t="n">
+      <c r="C10" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="8" t="n">
+      <c r="C11" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="8" t="n">
+      <c r="C12" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="8" t="n">
-        <v>0</v>
+      <c r="C13" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="8" t="n">
-        <v>0</v>
+      <c r="C14" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="8" t="n">
-        <v>0</v>
+      <c r="C15" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="8" t="n">
-        <v>0</v>
+      <c r="C16" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="8" t="n">
-        <v>0</v>
+      <c r="C17" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3006,221 +2940,221 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="12" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="12" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="12"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>57</v>
+      <c r="C7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="12"/>
+      <c r="C8" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="12"/>
+      <c r="C9" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="12"/>
+      <c r="C10" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="12"/>
+      <c r="C11" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="11"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="12"/>
+      <c r="C12" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="11"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="12"/>
+      <c r="C13" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="11"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="12"/>
+      <c r="C14" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="11"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="12"/>
+      <c r="C15" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="12"/>
+      <c r="C16" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="11"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="12"/>
+      <c r="C17" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3250,87 +3184,87 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3362,88 +3296,88 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="12"/>
+      <c r="A1" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="11"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3476,86 +3410,86 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3587,205 +3521,205 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="14" t="n">
+      <c r="B2" s="13" t="n">
         <f aca="false">-18.1-0.9</f>
         <v>-19</v>
       </c>
-      <c r="C2" s="15" t="n">
+      <c r="C2" s="14" t="n">
         <f aca="false">-18.1+0.9</f>
         <v>-17.2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="14" t="n">
+      <c r="B3" s="13" t="n">
         <f aca="false">-18.1-0.9</f>
         <v>-19</v>
       </c>
-      <c r="C3" s="15" t="n">
+      <c r="C3" s="14" t="n">
         <f aca="false">-18.1+0.9</f>
         <v>-17.2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="14" t="n">
+      <c r="B4" s="13" t="n">
         <v>1.7</v>
       </c>
-      <c r="C4" s="15" t="n">
+      <c r="C4" s="14" t="n">
         <v>3.3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="14" t="n">
+      <c r="B5" s="13" t="n">
         <f aca="false">-16.2-1.3</f>
         <v>-17.5</v>
       </c>
-      <c r="C5" s="15" t="n">
+      <c r="C5" s="14" t="n">
         <f aca="false">-16.2+1.3</f>
         <v>-14.9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="14" t="n">
+      <c r="B6" s="13" t="n">
         <f aca="false">-16.2-1.3</f>
         <v>-17.5</v>
       </c>
-      <c r="C6" s="15" t="n">
+      <c r="C6" s="14" t="n">
         <f aca="false">-16.2+1.3</f>
         <v>-14.9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="14" t="n">
+      <c r="B7" s="13" t="n">
         <f aca="false">-16.2-1.3</f>
         <v>-17.5</v>
       </c>
-      <c r="C7" s="15" t="n">
+      <c r="C7" s="14" t="n">
         <f aca="false">-16.2+1.3</f>
         <v>-14.9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="16" t="n">
+      <c r="B8" s="15" t="n">
         <v>19.2</v>
       </c>
-      <c r="C8" s="15" t="n">
+      <c r="C8" s="14" t="n">
         <v>21.2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="14" t="n">
+      <c r="B9" s="13" t="n">
         <v>5.1</v>
       </c>
-      <c r="C9" s="15" t="n">
+      <c r="C9" s="14" t="n">
         <v>6.7</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="16" t="n">
+      <c r="B10" s="15" t="n">
         <f aca="false">5.5-1.1</f>
         <v>4.4</v>
       </c>
-      <c r="C10" s="15" t="n">
+      <c r="C10" s="14" t="n">
         <f aca="false">5.5+1.1</f>
         <v>6.6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="14" t="n">
+      <c r="B11" s="13" t="n">
         <f aca="false">-18.6-0.9</f>
         <v>-19.5</v>
       </c>
-      <c r="C11" s="15" t="n">
+      <c r="C11" s="14" t="n">
         <f aca="false">-18.6+0.9</f>
         <v>-17.7</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="16" t="n">
+      <c r="B12" s="15" t="n">
         <f aca="false">4.2-0.7</f>
         <v>3.5</v>
       </c>
-      <c r="C12" s="15" t="n">
+      <c r="C12" s="14" t="n">
         <f aca="false">4.2+0.7</f>
         <v>4.9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="14" t="n">
+      <c r="B13" s="13" t="n">
         <v>-0.7</v>
       </c>
-      <c r="C13" s="15" t="n">
+      <c r="C13" s="14" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="17" t="n">
+      <c r="B14" s="16" t="n">
         <v>-100</v>
       </c>
-      <c r="C14" s="17" t="n">
+      <c r="C14" s="16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="17" t="n">
+      <c r="B15" s="16" t="n">
         <v>-50</v>
       </c>
-      <c r="C15" s="17" t="n">
+      <c r="C15" s="16" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="17" t="n">
+      <c r="B16" s="16" t="n">
         <v>-50</v>
       </c>
-      <c r="C16" s="17" t="n">
+      <c r="C16" s="16" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="17" t="n">
+      <c r="B17" s="16" t="n">
         <v>-50</v>
       </c>
-      <c r="C17" s="17" t="n">
+      <c r="C17" s="16" t="n">
         <v>50</v>
       </c>
     </row>
@@ -3817,189 +3751,189 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="18" t="n">
+      <c r="B2" s="17" t="n">
         <v>0.000975</v>
       </c>
-      <c r="C2" s="18" t="n">
+      <c r="C2" s="17" t="n">
         <v>0.00254</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="18" t="n">
+      <c r="B3" s="17" t="n">
         <v>0.00032</v>
       </c>
-      <c r="C3" s="18" t="n">
+      <c r="C3" s="17" t="n">
         <v>0.00038</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="18" t="n">
+      <c r="B4" s="17" t="n">
         <v>0.000202</v>
       </c>
-      <c r="C4" s="18" t="n">
+      <c r="C4" s="17" t="n">
         <v>0.000319</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="18" t="n">
+      <c r="B5" s="17" t="n">
         <v>0.000168</v>
       </c>
-      <c r="C5" s="18" t="n">
+      <c r="C5" s="17" t="n">
         <v>0.000344</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="18" t="n">
+      <c r="B6" s="17" t="n">
         <v>5.9E-005</v>
       </c>
-      <c r="C6" s="18" t="n">
+      <c r="C6" s="17" t="n">
         <v>8E-005</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="18" t="n">
+      <c r="B7" s="17" t="n">
         <v>4.53E-005</v>
       </c>
-      <c r="C7" s="18" t="n">
+      <c r="C7" s="17" t="n">
         <v>5.55E-005</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="18" t="n">
+      <c r="B8" s="17" t="n">
         <v>0.000113</v>
       </c>
-      <c r="C8" s="18" t="n">
+      <c r="C8" s="17" t="n">
         <v>0.000145</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="18" t="n">
+      <c r="B9" s="17" t="n">
         <v>1.15E-005</v>
       </c>
-      <c r="C9" s="18" t="n">
+      <c r="C9" s="17" t="n">
         <v>2.7E-005</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="18" t="n">
+      <c r="B10" s="17" t="n">
         <v>0.000161</v>
       </c>
-      <c r="C10" s="18" t="n">
+      <c r="C10" s="17" t="n">
         <v>0.000306</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="18" t="n">
+      <c r="B11" s="17" t="n">
         <v>1.95E-007</v>
       </c>
-      <c r="C11" s="18" t="n">
+      <c r="C11" s="17" t="n">
         <v>9.88E-007</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="18" t="n">
+      <c r="B12" s="17" t="n">
         <v>0.045</v>
       </c>
-      <c r="C12" s="18" t="n">
+      <c r="C12" s="17" t="n">
         <v>0.055</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="18" t="n">
+      <c r="B13" s="17" t="n">
         <v>2E-006</v>
       </c>
-      <c r="C13" s="18" t="n">
+      <c r="C13" s="17" t="n">
         <v>2.5E-006</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="18" t="n">
+      <c r="B14" s="17" t="n">
         <v>3.5E-007</v>
       </c>
-      <c r="C14" s="18" t="n">
+      <c r="C14" s="17" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="18" t="n">
+      <c r="B15" s="17" t="n">
         <v>8E-006</v>
       </c>
-      <c r="C15" s="18" t="n">
+      <c r="C15" s="17" t="n">
         <v>1.1E-005</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="18" t="n">
+      <c r="B16" s="17" t="n">
         <v>8.46E-006</v>
       </c>
-      <c r="C16" s="18" t="n">
+      <c r="C16" s="17" t="n">
         <v>1.5E-005</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="19" t="n">
+      <c r="B17" s="18" t="n">
         <v>0.0175</v>
       </c>
-      <c r="C17" s="19" t="n">
+      <c r="C17" s="18" t="n">
         <v>0.185</v>
       </c>
     </row>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model3_isoenzymes.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model3_isoenzymes.xlsx
@@ -5,22 +5,21 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="stoic" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="mets" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="rxns" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="splitRatios" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="poolConst" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="thermo_ineq_constraints" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="thermoRxns" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="thermoMets" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="measRates" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="protData" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="metsData" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="kinetics1" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="poolConst" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="thermo_ineq_constraints" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="thermoRxns" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="thermoMets" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="measRates" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="protData" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="metsData" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="kinetics1" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="100">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -770,67 +769,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="21" t="n">
-        <v>0.0389111460487091</v>
-      </c>
-      <c r="C2" s="21" t="n">
-        <v>0.0015</v>
-      </c>
-      <c r="D2" s="21" t="n">
-        <v>0.0389111460487091</v>
-      </c>
-      <c r="E2" s="21" t="n">
-        <v>0.0015</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -1091,7 +1029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1376,7 +1314,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2716,7 +2654,7 @@
   </sheetPr>
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -3172,9 +3110,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -3183,89 +3121,90 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
-        <v>48</v>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="11"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -3280,119 +3219,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B17"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="11"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3491,6 +3317,236 @@
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
         <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="13" t="n">
+        <f aca="false">-18.1-0.9</f>
+        <v>-19</v>
+      </c>
+      <c r="C2" s="14" t="n">
+        <f aca="false">-18.1+0.9</f>
+        <v>-17.2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="13" t="n">
+        <f aca="false">-18.1-0.9</f>
+        <v>-19</v>
+      </c>
+      <c r="C3" s="14" t="n">
+        <f aca="false">-18.1+0.9</f>
+        <v>-17.2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="13" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="C4" s="14" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="13" t="n">
+        <f aca="false">-16.2-1.3</f>
+        <v>-17.5</v>
+      </c>
+      <c r="C5" s="14" t="n">
+        <f aca="false">-16.2+1.3</f>
+        <v>-14.9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="13" t="n">
+        <f aca="false">-16.2-1.3</f>
+        <v>-17.5</v>
+      </c>
+      <c r="C6" s="14" t="n">
+        <f aca="false">-16.2+1.3</f>
+        <v>-14.9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="13" t="n">
+        <f aca="false">-16.2-1.3</f>
+        <v>-17.5</v>
+      </c>
+      <c r="C7" s="14" t="n">
+        <f aca="false">-16.2+1.3</f>
+        <v>-14.9</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="15" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="C8" s="14" t="n">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="13" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="C9" s="14" t="n">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="15" t="n">
+        <f aca="false">5.5-1.1</f>
+        <v>4.4</v>
+      </c>
+      <c r="C10" s="14" t="n">
+        <f aca="false">5.5+1.1</f>
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="13" t="n">
+        <f aca="false">-18.6-0.9</f>
+        <v>-19.5</v>
+      </c>
+      <c r="C11" s="14" t="n">
+        <f aca="false">-18.6+0.9</f>
+        <v>-17.7</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="15" t="n">
+        <f aca="false">4.2-0.7</f>
+        <v>3.5</v>
+      </c>
+      <c r="C12" s="14" t="n">
+        <f aca="false">4.2+0.7</f>
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="13" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="C13" s="14" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="16" t="n">
+        <v>-100</v>
+      </c>
+      <c r="C14" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="16" t="n">
+        <v>-50</v>
+      </c>
+      <c r="C15" s="16" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="16" t="n">
+        <v>-50</v>
+      </c>
+      <c r="C16" s="16" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="16" t="n">
+        <v>-50</v>
+      </c>
+      <c r="C17" s="16" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3521,206 +3577,190 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>60</v>
+      <c r="A1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="13" t="n">
-        <f aca="false">-18.1-0.9</f>
-        <v>-19</v>
-      </c>
-      <c r="C2" s="14" t="n">
-        <f aca="false">-18.1+0.9</f>
-        <v>-17.2</v>
+      <c r="A2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="17" t="n">
+        <v>0.000975</v>
+      </c>
+      <c r="C2" s="17" t="n">
+        <v>0.00254</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="13" t="n">
-        <f aca="false">-18.1-0.9</f>
-        <v>-19</v>
-      </c>
-      <c r="C3" s="14" t="n">
-        <f aca="false">-18.1+0.9</f>
-        <v>-17.2</v>
+      <c r="A3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="17" t="n">
+        <v>0.00032</v>
+      </c>
+      <c r="C3" s="17" t="n">
+        <v>0.00038</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="13" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="C4" s="14" t="n">
-        <v>3.3</v>
+      <c r="A4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="17" t="n">
+        <v>0.000202</v>
+      </c>
+      <c r="C4" s="17" t="n">
+        <v>0.000319</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="13" t="n">
-        <f aca="false">-16.2-1.3</f>
-        <v>-17.5</v>
-      </c>
-      <c r="C5" s="14" t="n">
-        <f aca="false">-16.2+1.3</f>
-        <v>-14.9</v>
+      <c r="A5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="17" t="n">
+        <v>0.000168</v>
+      </c>
+      <c r="C5" s="17" t="n">
+        <v>0.000344</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="13" t="n">
-        <f aca="false">-16.2-1.3</f>
-        <v>-17.5</v>
-      </c>
-      <c r="C6" s="14" t="n">
-        <f aca="false">-16.2+1.3</f>
-        <v>-14.9</v>
+      <c r="A6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="17" t="n">
+        <v>5.9E-005</v>
+      </c>
+      <c r="C6" s="17" t="n">
+        <v>8E-005</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="13" t="n">
-        <f aca="false">-16.2-1.3</f>
-        <v>-17.5</v>
-      </c>
-      <c r="C7" s="14" t="n">
-        <f aca="false">-16.2+1.3</f>
-        <v>-14.9</v>
+      <c r="A7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="17" t="n">
+        <v>4.53E-005</v>
+      </c>
+      <c r="C7" s="17" t="n">
+        <v>5.55E-005</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="15" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="C8" s="14" t="n">
-        <v>21.2</v>
+      <c r="A8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="17" t="n">
+        <v>0.000113</v>
+      </c>
+      <c r="C8" s="17" t="n">
+        <v>0.000145</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="13" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="C9" s="14" t="n">
-        <v>6.7</v>
+      <c r="A9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="17" t="n">
+        <v>1.15E-005</v>
+      </c>
+      <c r="C9" s="17" t="n">
+        <v>2.7E-005</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="15" t="n">
-        <f aca="false">5.5-1.1</f>
-        <v>4.4</v>
-      </c>
-      <c r="C10" s="14" t="n">
-        <f aca="false">5.5+1.1</f>
-        <v>6.6</v>
+      <c r="A10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="17" t="n">
+        <v>0.000161</v>
+      </c>
+      <c r="C10" s="17" t="n">
+        <v>0.000306</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="13" t="n">
-        <f aca="false">-18.6-0.9</f>
-        <v>-19.5</v>
-      </c>
-      <c r="C11" s="14" t="n">
-        <f aca="false">-18.6+0.9</f>
-        <v>-17.7</v>
+      <c r="A11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="17" t="n">
+        <v>1.95E-007</v>
+      </c>
+      <c r="C11" s="17" t="n">
+        <v>9.88E-007</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="15" t="n">
-        <f aca="false">4.2-0.7</f>
-        <v>3.5</v>
-      </c>
-      <c r="C12" s="14" t="n">
-        <f aca="false">4.2+0.7</f>
-        <v>4.9</v>
+      <c r="A12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="17" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="C12" s="17" t="n">
+        <v>0.055</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="13" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="C13" s="14" t="n">
-        <v>0.5</v>
+      <c r="A13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="17" t="n">
+        <v>2E-006</v>
+      </c>
+      <c r="C13" s="17" t="n">
+        <v>2.5E-006</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="16" t="n">
-        <v>-100</v>
-      </c>
-      <c r="C14" s="16" t="n">
-        <v>0</v>
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="17" t="n">
+        <v>3.5E-007</v>
+      </c>
+      <c r="C14" s="17" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="16" t="n">
-        <v>-50</v>
-      </c>
-      <c r="C15" s="16" t="n">
-        <v>50</v>
+      <c r="A15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="17" t="n">
+        <v>8E-006</v>
+      </c>
+      <c r="C15" s="17" t="n">
+        <v>1.1E-005</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="16" t="n">
-        <v>-50</v>
-      </c>
-      <c r="C16" s="16" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="16" t="n">
-        <v>-50</v>
-      </c>
-      <c r="C17" s="16" t="n">
-        <v>50</v>
+      <c r="A16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="17" t="n">
+        <v>8.46E-006</v>
+      </c>
+      <c r="C16" s="17" t="n">
+        <v>1.5E-005</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="18" t="n">
+        <v>0.0175</v>
+      </c>
+      <c r="C17" s="18" t="n">
+        <v>0.185</v>
       </c>
     </row>
   </sheetData>
@@ -3739,7 +3779,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -3751,190 +3791,37 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="17" t="n">
-        <v>0.000975</v>
-      </c>
-      <c r="C2" s="17" t="n">
-        <v>0.00254</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="17" t="n">
-        <v>0.00032</v>
-      </c>
-      <c r="C3" s="17" t="n">
-        <v>0.00038</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="17" t="n">
-        <v>0.000202</v>
-      </c>
-      <c r="C4" s="17" t="n">
-        <v>0.000319</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="17" t="n">
-        <v>0.000168</v>
-      </c>
-      <c r="C5" s="17" t="n">
-        <v>0.000344</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="17" t="n">
-        <v>5.9E-005</v>
-      </c>
-      <c r="C6" s="17" t="n">
-        <v>8E-005</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="17" t="n">
-        <v>4.53E-005</v>
-      </c>
-      <c r="C7" s="17" t="n">
-        <v>5.55E-005</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="17" t="n">
-        <v>0.000113</v>
-      </c>
-      <c r="C8" s="17" t="n">
-        <v>0.000145</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="17" t="n">
-        <v>1.15E-005</v>
-      </c>
-      <c r="C9" s="17" t="n">
-        <v>2.7E-005</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="17" t="n">
-        <v>0.000161</v>
-      </c>
-      <c r="C10" s="17" t="n">
-        <v>0.000306</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="17" t="n">
-        <v>1.95E-007</v>
-      </c>
-      <c r="C11" s="17" t="n">
-        <v>9.88E-007</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="17" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="C12" s="17" t="n">
-        <v>0.055</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="17" t="n">
-        <v>2E-006</v>
-      </c>
-      <c r="C13" s="17" t="n">
-        <v>2.5E-006</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="17" t="n">
-        <v>3.5E-007</v>
-      </c>
-      <c r="C14" s="17" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="17" t="n">
-        <v>8E-006</v>
-      </c>
-      <c r="C15" s="17" t="n">
-        <v>1.1E-005</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="17" t="n">
-        <v>8.46E-006</v>
-      </c>
-      <c r="C16" s="17" t="n">
-        <v>1.5E-005</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="18" t="n">
-        <v>0.0175</v>
-      </c>
-      <c r="C17" s="18" t="n">
-        <v>0.185</v>
+        <v>47</v>
+      </c>
+      <c r="B2" s="21" t="n">
+        <v>0.0389111460487091</v>
+      </c>
+      <c r="C2" s="21" t="n">
+        <v>0.0015</v>
+      </c>
+      <c r="D2" s="21" t="n">
+        <v>0.0389111460487091</v>
+      </c>
+      <c r="E2" s="21" t="n">
+        <v>0.0015</v>
       </c>
     </row>
   </sheetData>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model3_isoenzymes.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model3_isoenzymes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="103">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for fluxes (uniform or normal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for thermodynamic quantities (uniform or normal)</t>
   </si>
   <si>
     <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
@@ -344,7 +353,7 @@
     <numFmt numFmtId="167" formatCode="0.000000000"/>
     <numFmt numFmtId="168" formatCode="0.00"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -380,6 +389,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -487,7 +503,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -500,31 +516,39 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -532,11 +556,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -548,47 +572,47 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -596,11 +620,11 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -608,27 +632,27 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -649,10 +673,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -697,59 +721,75 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -772,7 +812,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A6:B7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -781,240 +821,240 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>71</v>
       </c>
+      <c r="B1" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="24" t="n">
+      <c r="A2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="26" t="n">
         <v>0.99</v>
       </c>
-      <c r="C2" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="24" t="n">
+      <c r="C2" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="26" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="24" t="n">
+      <c r="A3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="26" t="n">
         <v>0.99</v>
       </c>
-      <c r="C3" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="24" t="n">
+      <c r="C3" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="26" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="24" t="n">
+      <c r="A4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="26" t="n">
         <v>0.99</v>
       </c>
-      <c r="C4" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="24" t="n">
+      <c r="C4" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="26" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="24" t="n">
+      <c r="A5" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="26" t="n">
         <v>0.99</v>
       </c>
-      <c r="C5" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="24" t="n">
+      <c r="C5" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="26" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="24" t="n">
+      <c r="A6" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="26" t="n">
         <v>0.99</v>
       </c>
-      <c r="C6" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="24" t="n">
+      <c r="C6" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="26" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="24" t="n">
+      <c r="A7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="26" t="n">
         <v>0.99</v>
       </c>
-      <c r="C7" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="24" t="n">
+      <c r="C7" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="26" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="24" t="n">
+      <c r="A8" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="26" t="n">
         <v>0.99</v>
       </c>
-      <c r="C8" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="24" t="n">
+      <c r="C8" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="26" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="24" t="n">
+      <c r="A9" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="26" t="n">
         <v>0.99</v>
       </c>
-      <c r="C9" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="24" t="n">
+      <c r="C9" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="26" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="24" t="n">
+      <c r="A10" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="26" t="n">
         <v>0.99</v>
       </c>
-      <c r="C10" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="24" t="n">
+      <c r="C10" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="26" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="24" t="n">
+      <c r="A11" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="26" t="n">
         <v>0.99</v>
       </c>
-      <c r="C11" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="24" t="n">
+      <c r="C11" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="26" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="24" t="n">
+      <c r="A12" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="26" t="n">
         <v>0.99</v>
       </c>
-      <c r="C12" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="24" t="n">
+      <c r="C12" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="26" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="24" t="n">
+      <c r="A13" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="26" t="n">
         <v>0.99</v>
       </c>
-      <c r="C13" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="24" t="n">
+      <c r="C13" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="26" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="24" t="n">
+      <c r="A14" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="26" t="n">
         <v>0.99</v>
       </c>
-      <c r="C14" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="24" t="n">
+      <c r="C14" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="26" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="24" t="n">
+      <c r="A15" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="26" t="n">
         <v>0.99</v>
       </c>
-      <c r="C15" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="24" t="n">
+      <c r="C15" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="26" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="24" t="n">
+      <c r="A16" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="26" t="n">
         <v>0.99</v>
       </c>
-      <c r="C16" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="24" t="n">
+      <c r="C16" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="26" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="24" t="n">
+      <c r="A17" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="26" t="n">
         <v>0.99</v>
       </c>
-      <c r="C17" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="24" t="n">
+      <c r="C17" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="26" t="n">
         <v>1.01</v>
       </c>
     </row>
@@ -1037,7 +1077,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A6:B7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1046,262 +1086,262 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" s="10"/>
+      <c r="C1" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="24" t="n">
+      <c r="A2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="26" t="n">
         <v>0.99</v>
       </c>
-      <c r="C2" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="24" t="n">
+      <c r="C2" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="26" t="n">
         <v>1.01</v>
       </c>
-      <c r="E2" s="16"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="24" t="n">
+      <c r="A3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="26" t="n">
         <v>0.99</v>
       </c>
-      <c r="C3" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="24" t="n">
+      <c r="C3" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="26" t="n">
         <v>1.01</v>
       </c>
-      <c r="E3" s="16"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="24" t="n">
+      <c r="A4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="26" t="n">
         <v>0.99</v>
       </c>
-      <c r="C4" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="24" t="n">
+      <c r="C4" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="26" t="n">
         <v>1.01</v>
       </c>
-      <c r="E4" s="16"/>
+      <c r="E4" s="18"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="24" t="n">
+      <c r="A5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="26" t="n">
         <v>0.99</v>
       </c>
-      <c r="C5" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="24" t="n">
+      <c r="C5" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="26" t="n">
         <v>1.01</v>
       </c>
-      <c r="E5" s="16"/>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="24" t="n">
+      <c r="A6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="26" t="n">
         <v>0.99</v>
       </c>
-      <c r="C6" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="24" t="n">
+      <c r="C6" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="26" t="n">
         <v>1.01</v>
       </c>
-      <c r="E6" s="16"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="24" t="n">
+      <c r="A7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="26" t="n">
         <v>0.99</v>
       </c>
-      <c r="C7" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="24" t="n">
+      <c r="C7" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="26" t="n">
         <v>1.01</v>
       </c>
-      <c r="E7" s="16"/>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="24" t="n">
+      <c r="A8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="26" t="n">
         <v>0.99</v>
       </c>
-      <c r="C8" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="24" t="n">
+      <c r="C8" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="26" t="n">
         <v>1.01</v>
       </c>
-      <c r="E8" s="16"/>
+      <c r="E8" s="18"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="24" t="n">
+      <c r="A9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="26" t="n">
         <v>0.99</v>
       </c>
-      <c r="C9" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="24" t="n">
+      <c r="C9" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="26" t="n">
         <v>1.01</v>
       </c>
-      <c r="E9" s="16"/>
+      <c r="E9" s="18"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="24" t="n">
+      <c r="A10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="26" t="n">
         <v>0.99</v>
       </c>
-      <c r="C10" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="24" t="n">
+      <c r="C10" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="26" t="n">
         <v>1.01</v>
       </c>
-      <c r="E10" s="16"/>
+      <c r="E10" s="18"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="24" t="n">
+      <c r="A11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="26" t="n">
         <v>0.99</v>
       </c>
-      <c r="C11" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="24" t="n">
+      <c r="C11" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="26" t="n">
         <v>1.01</v>
       </c>
-      <c r="E11" s="16"/>
+      <c r="E11" s="18"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="24" t="n">
+      <c r="A12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="26" t="n">
         <v>0.99</v>
       </c>
-      <c r="C12" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="24" t="n">
+      <c r="C12" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="26" t="n">
         <v>1.01</v>
       </c>
-      <c r="E12" s="16"/>
+      <c r="E12" s="18"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="24" t="n">
+      <c r="A13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="26" t="n">
         <v>0.99</v>
       </c>
-      <c r="C13" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="24" t="n">
+      <c r="C13" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="26" t="n">
         <v>1.01</v>
       </c>
-      <c r="E13" s="16"/>
+      <c r="E13" s="18"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="24" t="n">
+      <c r="A14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="26" t="n">
         <v>0.99</v>
       </c>
-      <c r="C14" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="24" t="n">
+      <c r="C14" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="26" t="n">
         <v>1.01</v>
       </c>
-      <c r="E14" s="16"/>
+      <c r="E14" s="18"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="24" t="n">
+      <c r="A15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="26" t="n">
         <v>0.99</v>
       </c>
-      <c r="C15" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="24" t="n">
+      <c r="C15" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="26" t="n">
         <v>1.01</v>
       </c>
-      <c r="E15" s="16"/>
+      <c r="E15" s="18"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="24" t="n">
+      <c r="A16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="26" t="n">
         <v>0.99</v>
       </c>
-      <c r="C16" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="24" t="n">
+      <c r="C16" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="26" t="n">
         <v>1.01</v>
       </c>
-      <c r="E16" s="16"/>
+      <c r="E16" s="18"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="24" t="n">
+      <c r="A17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="26" t="n">
         <v>0.99</v>
       </c>
-      <c r="C17" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="24" t="n">
+      <c r="C17" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="26" t="n">
         <v>1.01</v>
       </c>
-      <c r="E17" s="16"/>
+      <c r="E17" s="18"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="26"/>
+      <c r="A18" s="28"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1322,7 +1362,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A6:B7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1330,381 +1370,381 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="30" customFormat="true" ht="30.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="30" t="s">
+    <row r="1" s="32" customFormat="true" ht="30.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="B1" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="C1" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="D1" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="E1" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="F1" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="G1" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="H1" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="I1" s="32" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="2" s="32" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="31" t="s">
+      <c r="J1" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="K1" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="L1" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="H2" s="32" t="s">
+    </row>
+    <row r="2" s="34" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="J2" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="31" t="n">
+      <c r="C2" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="33" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32" t="s">
+      <c r="A3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="34"/>
+      <c r="J3" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="31" t="n">
+      <c r="I5" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="33" t="n">
+        <v>4</v>
+      </c>
+      <c r="L5" s="34"/>
+    </row>
+    <row r="6" s="34" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" s="35" customFormat="true" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="33" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="J4" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="31" t="n">
+      <c r="L10" s="34"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="33" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="31" t="n">
-        <v>4</v>
-      </c>
-      <c r="L5" s="32"/>
-    </row>
-    <row r="6" s="32" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="H6" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="31" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="H7" s="32" t="s">
+      <c r="L12" s="36"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="J7" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="31" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="J8" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="31" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="J9" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="31" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" s="33" customFormat="true" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="31" t="n">
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="33" t="n">
         <v>2</v>
       </c>
-      <c r="L10" s="32"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="31" t="n">
-        <v>2</v>
-      </c>
-      <c r="L12" s="34"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="31" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" s="31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" s="33" customFormat="true" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" s="34"/>
-    </row>
-    <row r="16" s="35" customFormat="true" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" s="31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" s="35" customFormat="true" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
+      <c r="A14" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="31" t="n">
+      <c r="B14" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" s="35" customFormat="true" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="36"/>
+    </row>
+    <row r="16" s="37" customFormat="true" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" s="37" customFormat="true" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1727,7 +1767,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A6:B7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1737,60 +1777,60 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-1</v>
@@ -1843,7 +1883,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-1</v>
@@ -1896,7 +1936,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -1949,7 +1989,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-1</v>
@@ -2002,7 +2042,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-1</v>
@@ -2055,7 +2095,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -2108,7 +2148,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2161,7 +2201,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2214,7 +2254,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2267,7 +2307,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-1</v>
@@ -2320,7 +2360,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2373,7 +2413,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2426,7 +2466,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2479,7 +2519,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1</v>
@@ -2532,7 +2572,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -2585,7 +2625,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -2655,7 +2695,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2664,189 +2704,189 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>51</v>
+      <c r="A1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="7" t="n">
+      <c r="A2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="7" t="n">
+      <c r="A3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="7" t="n">
+      <c r="A4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="7" t="n">
+      <c r="A5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="7" t="n">
+      <c r="A6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="7" t="n">
+      <c r="A7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="7" t="n">
+      <c r="A8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="7" t="n">
+      <c r="A9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="7" t="n">
+      <c r="A10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="7" t="n">
+      <c r="A11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="7" t="n">
+      <c r="A12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="7" t="n">
+      <c r="A13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="7" t="n">
+      <c r="A14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="7" t="n">
+      <c r="A15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="7" t="n">
+      <c r="A16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="7" t="n">
+      <c r="A17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2869,7 +2909,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2878,221 +2918,221 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="13"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="13"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="13"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="13"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="13"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="11"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="11"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="11"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="11"/>
+      <c r="B15" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="11"/>
+      <c r="A16" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="11"/>
+      <c r="A17" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="13"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3112,8 +3152,8 @@
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A6:B7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3122,89 +3162,89 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="11"/>
+      <c r="A1" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>17</v>
+      <c r="A2" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>18</v>
+      <c r="A3" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>19</v>
+      <c r="A4" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>20</v>
+      <c r="A5" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>21</v>
+      <c r="A6" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>22</v>
+      <c r="A7" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>23</v>
+      <c r="A8" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
-        <v>24</v>
+      <c r="A9" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
-        <v>25</v>
+      <c r="A10" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
-        <v>26</v>
+      <c r="A11" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
-        <v>27</v>
+      <c r="A12" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
-        <v>28</v>
+      <c r="A13" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
-        <v>29</v>
+      <c r="A14" s="8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
-        <v>30</v>
+      <c r="A15" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
-        <v>31</v>
+      <c r="A16" s="8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
-        <v>32</v>
+      <c r="A17" s="8" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -3226,7 +3266,7 @@
   <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A6:B7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3235,88 +3275,88 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>57</v>
+      <c r="A1" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>17</v>
+      <c r="A2" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>18</v>
+      <c r="A3" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>19</v>
+      <c r="A4" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>20</v>
+      <c r="A5" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>21</v>
+      <c r="A6" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>22</v>
+      <c r="A7" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>23</v>
+      <c r="A8" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
-        <v>24</v>
+      <c r="A9" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
-        <v>25</v>
+      <c r="A10" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
-        <v>26</v>
+      <c r="A11" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
-        <v>27</v>
+      <c r="A12" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
-        <v>28</v>
+      <c r="A13" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
-        <v>29</v>
+      <c r="A14" s="8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
-        <v>30</v>
+      <c r="A15" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
-        <v>31</v>
+      <c r="A16" s="8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
-        <v>32</v>
+      <c r="A17" s="8" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -3338,7 +3378,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A6:B7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3347,205 +3387,205 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>60</v>
+      <c r="A1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="13" t="n">
+      <c r="A2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="15" t="n">
         <f aca="false">-18.1-0.9</f>
         <v>-19</v>
       </c>
-      <c r="C2" s="14" t="n">
+      <c r="C2" s="16" t="n">
         <f aca="false">-18.1+0.9</f>
         <v>-17.2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="13" t="n">
+      <c r="A3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="15" t="n">
         <f aca="false">-18.1-0.9</f>
         <v>-19</v>
       </c>
-      <c r="C3" s="14" t="n">
+      <c r="C3" s="16" t="n">
         <f aca="false">-18.1+0.9</f>
         <v>-17.2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="13" t="n">
+      <c r="A4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="15" t="n">
         <v>1.7</v>
       </c>
-      <c r="C4" s="14" t="n">
+      <c r="C4" s="16" t="n">
         <v>3.3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="13" t="n">
+      <c r="A5" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="15" t="n">
         <f aca="false">-16.2-1.3</f>
         <v>-17.5</v>
       </c>
-      <c r="C5" s="14" t="n">
+      <c r="C5" s="16" t="n">
         <f aca="false">-16.2+1.3</f>
         <v>-14.9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="13" t="n">
+      <c r="A6" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="15" t="n">
         <f aca="false">-16.2-1.3</f>
         <v>-17.5</v>
       </c>
-      <c r="C6" s="14" t="n">
+      <c r="C6" s="16" t="n">
         <f aca="false">-16.2+1.3</f>
         <v>-14.9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="13" t="n">
+      <c r="A7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="15" t="n">
         <f aca="false">-16.2-1.3</f>
         <v>-17.5</v>
       </c>
-      <c r="C7" s="14" t="n">
+      <c r="C7" s="16" t="n">
         <f aca="false">-16.2+1.3</f>
         <v>-14.9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="15" t="n">
+      <c r="A8" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="17" t="n">
         <v>19.2</v>
       </c>
-      <c r="C8" s="14" t="n">
+      <c r="C8" s="16" t="n">
         <v>21.2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="13" t="n">
+      <c r="A9" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="15" t="n">
         <v>5.1</v>
       </c>
-      <c r="C9" s="14" t="n">
+      <c r="C9" s="16" t="n">
         <v>6.7</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="15" t="n">
+      <c r="A10" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="17" t="n">
         <f aca="false">5.5-1.1</f>
         <v>4.4</v>
       </c>
-      <c r="C10" s="14" t="n">
+      <c r="C10" s="16" t="n">
         <f aca="false">5.5+1.1</f>
         <v>6.6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="13" t="n">
+      <c r="A11" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="15" t="n">
         <f aca="false">-18.6-0.9</f>
         <v>-19.5</v>
       </c>
-      <c r="C11" s="14" t="n">
+      <c r="C11" s="16" t="n">
         <f aca="false">-18.6+0.9</f>
         <v>-17.7</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="15" t="n">
+      <c r="A12" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="17" t="n">
         <f aca="false">4.2-0.7</f>
         <v>3.5</v>
       </c>
-      <c r="C12" s="14" t="n">
+      <c r="C12" s="16" t="n">
         <f aca="false">4.2+0.7</f>
         <v>4.9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="13" t="n">
+      <c r="A13" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="15" t="n">
         <v>-0.7</v>
       </c>
-      <c r="C13" s="14" t="n">
+      <c r="C13" s="16" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="16" t="n">
+      <c r="A14" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="18" t="n">
         <v>-100</v>
       </c>
-      <c r="C14" s="16" t="n">
+      <c r="C14" s="18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="16" t="n">
+      <c r="A15" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="18" t="n">
         <v>-50</v>
       </c>
-      <c r="C15" s="16" t="n">
+      <c r="C15" s="18" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="16" t="n">
+      <c r="A16" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="18" t="n">
         <v>-50</v>
       </c>
-      <c r="C16" s="16" t="n">
+      <c r="C16" s="18" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="16" t="n">
+      <c r="A17" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="18" t="n">
         <v>-50</v>
       </c>
-      <c r="C17" s="16" t="n">
+      <c r="C17" s="18" t="n">
         <v>50</v>
       </c>
     </row>
@@ -3568,7 +3608,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A6:B7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3577,189 +3617,189 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>62</v>
+      <c r="A1" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="17" t="n">
+      <c r="A2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="19" t="n">
         <v>0.000975</v>
       </c>
-      <c r="C2" s="17" t="n">
+      <c r="C2" s="19" t="n">
         <v>0.00254</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="17" t="n">
+      <c r="A3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="19" t="n">
         <v>0.00032</v>
       </c>
-      <c r="C3" s="17" t="n">
+      <c r="C3" s="19" t="n">
         <v>0.00038</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="17" t="n">
+      <c r="A4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="19" t="n">
         <v>0.000202</v>
       </c>
-      <c r="C4" s="17" t="n">
+      <c r="C4" s="19" t="n">
         <v>0.000319</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="17" t="n">
+      <c r="A5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="19" t="n">
         <v>0.000168</v>
       </c>
-      <c r="C5" s="17" t="n">
+      <c r="C5" s="19" t="n">
         <v>0.000344</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="17" t="n">
+      <c r="A6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="19" t="n">
         <v>5.9E-005</v>
       </c>
-      <c r="C6" s="17" t="n">
+      <c r="C6" s="19" t="n">
         <v>8E-005</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="17" t="n">
+      <c r="A7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="19" t="n">
         <v>4.53E-005</v>
       </c>
-      <c r="C7" s="17" t="n">
+      <c r="C7" s="19" t="n">
         <v>5.55E-005</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="17" t="n">
+      <c r="A8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="19" t="n">
         <v>0.000113</v>
       </c>
-      <c r="C8" s="17" t="n">
+      <c r="C8" s="19" t="n">
         <v>0.000145</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="17" t="n">
+      <c r="A9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="19" t="n">
         <v>1.15E-005</v>
       </c>
-      <c r="C9" s="17" t="n">
+      <c r="C9" s="19" t="n">
         <v>2.7E-005</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="17" t="n">
+      <c r="A10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="19" t="n">
         <v>0.000161</v>
       </c>
-      <c r="C10" s="17" t="n">
+      <c r="C10" s="19" t="n">
         <v>0.000306</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="17" t="n">
+      <c r="A11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="19" t="n">
         <v>1.95E-007</v>
       </c>
-      <c r="C11" s="17" t="n">
+      <c r="C11" s="19" t="n">
         <v>9.88E-007</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="17" t="n">
+      <c r="A12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="19" t="n">
         <v>0.045</v>
       </c>
-      <c r="C12" s="17" t="n">
+      <c r="C12" s="19" t="n">
         <v>0.055</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="17" t="n">
+      <c r="A13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="19" t="n">
         <v>2E-006</v>
       </c>
-      <c r="C13" s="17" t="n">
+      <c r="C13" s="19" t="n">
         <v>2.5E-006</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="17" t="n">
+      <c r="A14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="19" t="n">
         <v>3.5E-007</v>
       </c>
-      <c r="C14" s="17" t="n">
+      <c r="C14" s="19" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="17" t="n">
+      <c r="A15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="19" t="n">
         <v>8E-006</v>
       </c>
-      <c r="C15" s="17" t="n">
+      <c r="C15" s="19" t="n">
         <v>1.1E-005</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="17" t="n">
+      <c r="A16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="19" t="n">
         <v>8.46E-006</v>
       </c>
-      <c r="C16" s="17" t="n">
+      <c r="C16" s="19" t="n">
         <v>1.5E-005</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="18" t="n">
+      <c r="A17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="20" t="n">
         <v>0.0175</v>
       </c>
-      <c r="C17" s="18" t="n">
+      <c r="C17" s="20" t="n">
         <v>0.185</v>
       </c>
     </row>
@@ -3782,7 +3822,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A6:B7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3791,36 +3831,36 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="B1" s="22" t="s">
         <v>67</v>
       </c>
+      <c r="C1" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="21" t="n">
+      <c r="A2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="23" t="n">
         <v>0.0389111460487091</v>
       </c>
-      <c r="C2" s="21" t="n">
+      <c r="C2" s="23" t="n">
         <v>0.0015</v>
       </c>
-      <c r="D2" s="21" t="n">
+      <c r="D2" s="23" t="n">
         <v>0.0389111460487091</v>
       </c>
-      <c r="E2" s="21" t="n">
+      <c r="E2" s="23" t="n">
         <v>0.0015</v>
       </c>
     </row>
